--- a/datamining/final_data/tfidf1957_nltk.xlsx
+++ b/datamining/final_data/tfidf1957_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI15"/>
+  <dimension ref="A1:AU15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,270 +467,200 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>meant</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>school</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>meant</t>
+          <t>page</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>read</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>want</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>education</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>funds</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>plea</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>psychlogogy</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>research</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>beginning</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>bellwood</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>illinois</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>funds</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>program</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>plea</t>
+          <t>pendulum</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>psychlogogy</t>
+          <t>swings</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>encouraging</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>musically</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>beginning</t>
+          <t>case</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>bellwood</t>
+          <t>history</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>illinois</t>
+          <t>child</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>france</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>children</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>pendulum</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>swings</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>encouraging</t>
+          <t>message</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>musically</t>
+          <t>president</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>aaas</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>annual</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>city</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>held</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>france</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>teach</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>message</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>president</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>aaas</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>annual</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>held</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>jointly</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>york</t>
         </is>
@@ -876,48 +806,6 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -941,28 +829,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="H3" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="I3" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="J3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1061,48 +949,6 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1135,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1150,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1246,48 +1092,6 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1326,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1344,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1431,48 +1235,6 @@
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1487,7 +1249,7 @@
         <v>2528</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1517,52 +1279,52 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="U6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1616,48 +1378,6 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1723,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1750,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -1801,48 +1521,6 @@
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1896,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1923,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1950,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -1986,48 +1664,6 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2114,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -2141,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -2171,48 +1807,6 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2305,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -2332,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2356,48 +1950,6 @@
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2412,7 +1964,7 @@
         <v>2533</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2451,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2496,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -2532,57 +2084,15 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2597,7 +2107,7 @@
         <v>2534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2687,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
@@ -2723,51 +2233,9 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2782,7 +2250,7 @@
         <v>2535</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2872,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2908,51 +2376,9 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -3096,48 +2522,6 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3191,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3257,72 +2641,30 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BI15" t="n">
         <v>0.33</v>
       </c>
     </row>
